--- a/ODK/ColectaFotos.xlsx
+++ b/ODK/ColectaFotos.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\PROYECTOS\Croppie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\PROYECTOS\Croppie\documentos\odk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="4" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Cambios" sheetId="5" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$L$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$L$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -103,9 +104,6 @@
     <t>Mensaje de consentimiento</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
     <t>pi_img</t>
   </si>
   <si>
-    <t>max-pixels=1000</t>
-  </si>
-  <si>
     <t>list name</t>
   </si>
   <si>
@@ -154,15 +149,9 @@
     <t>version</t>
   </si>
   <si>
-    <t>pais_agriculto</t>
-  </si>
-  <si>
     <t>concat( ${uid} )</t>
   </si>
   <si>
-    <t>select_one choices_country</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -202,21 +191,9 @@
     <t>Motorola</t>
   </si>
   <si>
-    <t>Otra_marca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubicación del lugar </t>
   </si>
   <si>
-    <t xml:space="preserve">País </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escriba la marca del celular </t>
-  </si>
-  <si>
     <t xml:space="preserve">Otra marca del celular </t>
   </si>
   <si>
@@ -235,9 +212,6 @@
     <t>TomaFotosCroppie</t>
   </si>
   <si>
-    <t>Escoja el país donde se tomó la foto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perú </t>
   </si>
   <si>
@@ -301,9 +275,6 @@
     <t>pixeles</t>
   </si>
   <si>
-    <t>select_one pixeles</t>
-  </si>
-  <si>
     <t>8mgp_above</t>
   </si>
   <si>
@@ -331,12 +302,6 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>otra_marca_cel</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
     <t>marca_celular</t>
   </si>
   <si>
@@ -349,9 +314,6 @@
     <t>Seleccione el día y la hora de la toma de la foto</t>
   </si>
   <si>
-    <t>${marca_celular}='Otra_marca'</t>
-  </si>
-  <si>
     <t>Cargar las fotos</t>
   </si>
   <si>
@@ -460,18 +422,9 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>Escriba el nombre de quién tomó la foto</t>
-  </si>
-  <si>
     <t>Escoja la marca del celular usado para la toma de las fotos</t>
   </si>
   <si>
-    <t>Resolución de su cámara</t>
-  </si>
-  <si>
-    <t>Seleccione una opción. MP es megapíxeles.</t>
-  </si>
-  <si>
     <t>otra_varied</t>
   </si>
   <si>
@@ -559,14 +512,113 @@
     <t>Escriba la variedad</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1Dl2RtVVEjjRk_otZrbrd4BU2n01UIIdRD3g4hEIPj84/edit?usp=sharing</t>
+    <t>Nosé cuantos megapíxeles tiene la camara</t>
+  </si>
+  <si>
+    <t>32mgp_not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>mas_fotos</t>
+  </si>
+  <si>
+    <t>¿Tiene más fotos que agregar bajo estas mismas características?</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>count(${fotos_camara})</t>
+  </si>
+  <si>
+    <t>${count} + 1</t>
+  </si>
+  <si>
+    <t>${count})</t>
+  </si>
+  <si>
+    <t>if(${count} = 0 or ${fotos_camara}[position()=${count}]/mas_fotos = 'si', ${count} + 1, ${count})</t>
+  </si>
+  <si>
+    <t>select_one fotografo</t>
+  </si>
+  <si>
+    <t>nombre_fotografo</t>
+  </si>
+  <si>
+    <t>Nombre de quien va tomar la foto</t>
+  </si>
+  <si>
+    <t>Escoja el nombre de quién va a tomar la foto</t>
+  </si>
+  <si>
+    <t>fotografo</t>
+  </si>
+  <si>
+    <t>Nombre_1</t>
+  </si>
+  <si>
+    <t>Nombre_2</t>
+  </si>
+  <si>
+    <t>Nombre_3</t>
+  </si>
+  <si>
+    <t>No estoy en la lista</t>
+  </si>
+  <si>
+    <t>otro_nombre</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Escriba  el nombre de quién va a tomar la foto</t>
+  </si>
+  <si>
+    <t>${nombre_fotografo}='otro_nombre'</t>
+  </si>
+  <si>
+    <t>otro_celular</t>
+  </si>
+  <si>
+    <t>Escriba el nombre del celular</t>
+  </si>
+  <si>
+    <t>otra_marca</t>
+  </si>
+  <si>
+    <t>${marca_celular}='otra_marca'</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1opLkUXGFifKYb98CAZQIc31t7r4VChg6YfpwZLPbEGk/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,16 +717,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -697,6 +762,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E4E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E4E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1E4E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E4E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E4E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1E4E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E4E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,6 +836,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1118,13 +1222,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1141,18 +1245,20 @@
     <col min="10" max="10" width="167.5" style="10" customWidth="1"/>
     <col min="11" max="11" width="45.625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="59.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="10"/>
-    <col min="16" max="16" width="28.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="10"/>
-    <col min="23" max="23" width="19.625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="9" style="10"/>
-    <col min="25" max="25" width="20.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="10"/>
+    <col min="13" max="15" width="64.375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="59.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="10"/>
+    <col min="18" max="18" width="28.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="10.75" style="10" customWidth="1"/>
+    <col min="21" max="24" width="9" style="10"/>
+    <col min="25" max="25" width="19.625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="9" style="10"/>
+    <col min="27" max="27" width="20.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1192,14 +1298,14 @@
       <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -1212,9 +1318,9 @@
       <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="R2" s="5"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1225,272 +1331,311 @@
         <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="8" customFormat="1">
-      <c r="A5" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1">
+      <c r="A5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="8" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="8" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="8" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="8" customFormat="1"/>
+    <row r="13" spans="1:18" s="8" customFormat="1"/>
+    <row r="14" spans="1:18" s="8" customFormat="1"/>
+    <row r="15" spans="1:18" s="8" customFormat="1"/>
+    <row r="16" spans="1:18" s="8" customFormat="1"/>
+    <row r="17" spans="1:20" s="8" customFormat="1"/>
+    <row r="18" spans="1:20" s="8" customFormat="1">
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="8" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="8" customFormat="1">
+      <c r="A20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" customFormat="1">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="8" customFormat="1">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="8" customFormat="1">
+      <c r="A22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="8" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="8" customFormat="1">
+      <c r="A24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" s="8" customFormat="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:20" s="8" customFormat="1" ht="16.5" thickBot="1">
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+      <c r="A28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="8" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="O29" s="18"/>
+      <c r="S29" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="T29" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="8" customFormat="1">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:20" s="8" customFormat="1">
+      <c r="A31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:20" s="8" customFormat="1">
+      <c r="A32" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="8" customFormat="1">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="8" customFormat="1">
-      <c r="A12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="8" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="8" customFormat="1">
-      <c r="A14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="8" customFormat="1">
-      <c r="A15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="8" customFormat="1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="8" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1">
-      <c r="A19" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1">
-      <c r="A20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1">
-      <c r="A21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="8" customFormat="1">
-      <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="P22" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="8" customFormat="1">
-      <c r="A23" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1501,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1516,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1527,424 +1672,501 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>131</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
-        <v>131</v>
+      <c r="A30" t="s">
+        <v>118</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1">
-      <c r="A36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="8" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="8" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="8" customFormat="1">
       <c r="A39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>139</v>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1954,11 +2176,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="17">
+        <v>44288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1971,37 +2232,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="8">
         <v>20200701</v>
